--- a/OREI_files/10-herd data/MALDI files/MALDI-TOF isolates submitted 1_18_2021.xlsx
+++ b/OREI_files/10-herd data/MALDI files/MALDI-TOF isolates submitted 1_18_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI/10-herd data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/10-herd data/MALDI files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="209" documentId="8_{86992C84-19B4-400B-8307-2C727DADB198}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C20EDCCD-19C1-4490-BFE6-6317F3EC2313}"/>
+  <xr:revisionPtr revIDLastSave="213" documentId="8_{86992C84-19B4-400B-8307-2C727DADB198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{633707BD-F885-4161-8346-2D28413D2FCC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" activeTab="10" xr2:uid="{C4867822-0960-45F8-8CC5-6E3EFF27BBF1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" activeTab="8" xr2:uid="{C4867822-0960-45F8-8CC5-6E3EFF27BBF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Artisan Cheese (AC) isolates" sheetId="2" r:id="rId1"/>
@@ -3762,7 +3762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BCDCD0-2E55-4EA0-9E25-58E331ED4AFD}">
   <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -4358,8 +4358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E794F80D-9D31-4B0C-B0A4-02C4D1DE4E1E}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4932,8 +4932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE11C4B-D3FB-4101-88A3-A1E972CF4D5A}">
   <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5821,7 +5821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23756B07-0A63-4CB3-B322-17D95EBE8608}">
   <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
@@ -7115,8 +7115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8782CD83-735E-40E3-AF93-0B69E841222D}">
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
